--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14725338-2ED7-4857-86E7-CEEB9A346E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191CE076-A336-44D9-A3CB-C3F0EC42D98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路设计表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -789,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191CE076-A336-44D9-A3CB-C3F0EC42D98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F962239-6E0A-4385-98D7-288DDF6B8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F962239-6E0A-4385-98D7-288DDF6B8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D3A76-7D4F-4899-BD5E-6008694F515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D3A76-7D4F-4899-BD5E-6008694F515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D9612-557F-45C2-AE9E-7CC7F26B14FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路设计表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="89">
   <si>
     <t>PC.in</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,6 +381,14 @@
       </rPr>
       <t>总计</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +809,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1460,10 +1468,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -1913,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>5</v>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/数据通路设计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D9612-557F-45C2-AE9E-7CC7F26B14FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0815B1-D308-4304-901E-E7B9411482DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
